--- a/Daily/Ljung_Box/Square First Difference/fast_retailing.xlsx
+++ b/Daily/Ljung_Box/Square First Difference/fast_retailing.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.008971466875810231</v>
+        <v>0.07928366619055938</v>
+      </c>
+      <c r="C2">
+        <v>0.7782705210364634</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6635843325525139</v>
+        <v>0.08078387077810252</v>
+      </c>
+      <c r="C3">
+        <v>0.9604129455550945</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.183095030348369</v>
+        <v>0.1072836001911346</v>
       </c>
       <c r="C4">
-        <v>0.07440367380829425</v>
+        <v>0.9909492634111819</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.381113740443948</v>
+        <v>0.1072981870411894</v>
       </c>
       <c r="C5">
-        <v>0.184416799169557</v>
+        <v>0.9986113379018136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.410632972956121</v>
+        <v>1.233546463449525</v>
       </c>
       <c r="C6">
-        <v>0.332539022257231</v>
+        <v>0.9416188376057923</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.094294796693774</v>
+        <v>1.268323933990075</v>
       </c>
       <c r="C7">
-        <v>0.2777583834053918</v>
+        <v>0.9733755981891972</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.09489308396422</v>
+        <v>1.280688200188767</v>
       </c>
       <c r="C8">
-        <v>0.4044095118041071</v>
+        <v>0.988948898390878</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.137229021529263</v>
+        <v>1.296988712655853</v>
       </c>
       <c r="C9">
-        <v>0.5263369519956844</v>
+        <v>0.9955880509571969</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.131257022195739</v>
+        <v>1.659723901780617</v>
       </c>
       <c r="C10">
-        <v>0.5245096089100194</v>
+        <v>0.99577933893258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.38080884926924</v>
+        <v>1.66210289484585</v>
       </c>
       <c r="C11">
-        <v>0.6046564838999189</v>
+        <v>0.9983354080419695</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.261716439239368</v>
+        <v>2.845904781709289</v>
       </c>
       <c r="C12">
-        <v>0.5080019740822046</v>
+        <v>0.992609501305479</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8.290402583727719</v>
+        <v>2.894710410391446</v>
       </c>
       <c r="C13">
-        <v>0.6004938798429165</v>
+        <v>0.9962428116752036</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.079537470355515</v>
+        <v>3.848241646086138</v>
       </c>
       <c r="C14">
-        <v>0.614550729470408</v>
+        <v>0.9927011156406205</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.60011791058785</v>
+        <v>4.415298667990672</v>
       </c>
       <c r="C15">
-        <v>0.6509961349557876</v>
+        <v>0.9924043018262197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.675605937757927</v>
+        <v>4.436661672418635</v>
       </c>
       <c r="C16">
-        <v>0.7202215961677723</v>
+        <v>0.99591692333425</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10.23787382174813</v>
+        <v>4.826964607723831</v>
       </c>
       <c r="C17">
-        <v>0.7445935726720566</v>
+        <v>0.9965486340074539</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10.69705949582351</v>
+        <v>5.110706488660305</v>
       </c>
       <c r="C18">
-        <v>0.7737588030724516</v>
+        <v>0.9974406550633451</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10.76230523953327</v>
+        <v>5.217422454027589</v>
       </c>
       <c r="C19">
-        <v>0.8239137998813153</v>
+        <v>0.9984792325441537</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12.21776069016641</v>
+        <v>6.670250757319261</v>
       </c>
       <c r="C20">
-        <v>0.7867753024417169</v>
+        <v>0.9957750800217149</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>13.63097232904537</v>
+        <v>8.152300753491135</v>
       </c>
       <c r="C21">
-        <v>0.752811298486855</v>
+        <v>0.9908112672549878</v>
       </c>
     </row>
   </sheetData>
